--- a/0929关键词汇总.xlsx
+++ b/0929关键词汇总.xlsx
@@ -1,46 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qtkf/Desktop/ASO-协同工作/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ASO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="38400" windowHeight="19540" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="38400" windowHeight="19545" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="12-16分期贷-谷米" sheetId="5" r:id="rId3"/>
-    <sheet name="12-15分期贷款-谷米" sheetId="6" r:id="rId4"/>
-    <sheet name="12-14借钱么-谷米" sheetId="7" r:id="rId5"/>
-    <sheet name="12-14借款专家zyb-谷米" sheetId="8" r:id="rId6"/>
-    <sheet name="11-23" sheetId="3" r:id="rId7"/>
-    <sheet name="11-25" sheetId="4" r:id="rId8"/>
-    <sheet name="1-20" sheetId="10" r:id="rId9"/>
-    <sheet name="2-8" sheetId="11" r:id="rId10"/>
-    <sheet name="2-24" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId3"/>
+    <sheet name="12-16分期贷-谷米" sheetId="5" r:id="rId4"/>
+    <sheet name="12-15分期贷款-谷米" sheetId="6" r:id="rId5"/>
+    <sheet name="12-14借钱么-谷米" sheetId="7" r:id="rId6"/>
+    <sheet name="12-14借款专家zyb-谷米" sheetId="8" r:id="rId7"/>
+    <sheet name="11-23" sheetId="3" r:id="rId8"/>
+    <sheet name="11-25" sheetId="4" r:id="rId9"/>
+    <sheet name="1-20" sheetId="10" r:id="rId10"/>
+    <sheet name="2-8" sheetId="11" r:id="rId11"/>
+    <sheet name="2-24" sheetId="12" r:id="rId12"/>
+    <sheet name="4-21" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>现金巴士，借呗蚂蚁花呗，趣分期乐花花无缺钱么么贷，闪银奇异，京东白条，爱学贷，名校贷，九融助业贷，急急贷，急用钱宝，玖富叮当贷，快贷，大学生贷款，嗨钱网贷嘛，给你花，指尖贷，任性付，手机贷款王，曹操贷</t>
   </si>
@@ -300,11 +302,32 @@
   <si>
     <t>小额广发好要借钱,花薪网易小贷快来贷,51闪电贷现金秒贷,蜡笔分期玖富叮当,手机贷app微粒贷,小瑞快贷支付贷百度钱包,大小贷极速钱包,快贷贷款拍来贷,信用卡贷微贷拍分期,零零期信用宝,瞬贷信用钱包</t>
   </si>
+  <si>
+    <t>蚂蚁闪银钱包玖富,人人小额贷款,闪电极速借款,挖财给你花叮当浦发,借呗名校51人品贷,手机缺钱功夫平安易贷,省呗花呗银联信用管家,微众信用卡申请,网商银行征信查询,微粒贷聚宝,你我宜人好秒贷,京东白条</t>
+  </si>
+  <si>
+    <t>网上亲亲小微贷款,手机贷用钱宝,急用钱,快贷飞贷小花钱包,学生普惠光大花无缺,公积金贷优分期,借贷宝信用卡办理,瞬时现金借款,小葱应急信用钱包,捷信借钱花分期贷,小贷通快钱app,趣分期乐小米金融软件</t>
+  </si>
+  <si>
+    <t>借了吗拍拍贷一账通,拉卡拉融360,卡牛网贷秒钱学子易贷,容易贷小额极速借贷,闪电借款借呗微贷,借点钱秒借民间平台,学生贷款王,闪银速贷微贷网,信贷通应急达飞速贷款,i贷缺钱么小信用,大额钱端宜信招联</t>
+  </si>
+  <si>
+    <t>豆豆钱来分期,钱站达飞云贷马上有钱,信而富随手借金管家,微信身份证火箭借款,身份闪贷快贷极速贷,好又贷银行借钱,叮当拇指好期贷, 借条零零期缺钱花,简单急速微米贷款,急用快借钱包,速借钱我来贷借钱易</t>
+  </si>
+  <si>
+    <t>急速借钱用我要贷,花呗套现qq应急宝,借点花滴滴快贷,分期借钱贷款平台,任我贷我飞,火速好想信誉贷款,原子卡牛阿里贷款,微利微贷通,查信用,秒批粒粒贷阳光贷款,喵喵借贷无息贷款口子,网络轻松社保贷款</t>
+  </si>
+  <si>
+    <t>钱包贷芝麻信用,点点随心贷,民生易贷学信贷,零用贷p2p网贷,免息优惠无抵押贷款,魔法现金员工贷,融e购麦芽嘉卡贷,小赢卡贷发薪贷,学生借钱,贝米钱包,上海浙江旅游联通移动,浦发工行阡陌2345,读秒</t>
+  </si>
+  <si>
+    <t>点融网爱学贷，万达贷，布丁小贷，招商交通广发银行信用卡，住房汽车口袋贷款，渣打星星钱袋，钱宝易阳指</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,16 +444,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -748,502 +771,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:U7"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="A9:U9"/>
-    <mergeCell ref="A10:U10"/>
     <mergeCell ref="A16:U16"/>
     <mergeCell ref="A17:U17"/>
     <mergeCell ref="A11:U11"/>
@@ -1257,6 +1275,11 @@
     <mergeCell ref="A13:U13"/>
     <mergeCell ref="A14:U14"/>
     <mergeCell ref="A15:U15"/>
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:U7"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="A9:U9"/>
+    <mergeCell ref="A10:U10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1268,34 +1291,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1306,45 +1329,86 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1356,48 +1420,97 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1410,51 +1523,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1462,48 +1536,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:A14"/>
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="357" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1514,48 +1588,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:A7"/>
+  <sheetPr codeName="工作表4"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="297" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1566,38 +1640,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:A5"/>
+  <sheetPr codeName="工作表5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1608,38 +1692,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="工作表6"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1650,48 +1734,38 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表8" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:A14"/>
+  <sheetPr codeName="工作表7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="374" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1702,37 +1776,48 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="297" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/0929关键词汇总.xlsx
+++ b/0929关键词汇总.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ASO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qtkf/Desktop/ASO/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="38400" windowHeight="19545" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="38400" windowHeight="19540" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -26,16 +26,16 @@
     <sheet name="2-24" sheetId="12" r:id="rId12"/>
     <sheet name="4-21" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,16 +444,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -771,497 +771,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1"/>
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:U7"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="A9:U9"/>
+    <mergeCell ref="A10:U10"/>
     <mergeCell ref="A16:U16"/>
     <mergeCell ref="A17:U17"/>
     <mergeCell ref="A11:U11"/>
@@ -1275,11 +1280,6 @@
     <mergeCell ref="A13:U13"/>
     <mergeCell ref="A14:U14"/>
     <mergeCell ref="A15:U15"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:U7"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="A9:U9"/>
-    <mergeCell ref="A10:U10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,29 +1294,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1335,29 +1335,29 @@
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1372,43 +1372,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1424,41 +1424,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1471,46 +1473,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2"/>
+  <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1527,7 +1529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1536,46 +1538,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3"/>
+  <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1588,46 +1590,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表4"/>
+  <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="297" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="357" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1640,46 +1642,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表5"/>
+  <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1692,36 +1694,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表6"/>
+  <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1734,36 +1736,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表7"/>
+  <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1776,46 +1778,46 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表8"/>
+  <sheetPr codeName="工作表8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="297" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="374" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>

--- a/0929关键词汇总.xlsx
+++ b/0929关键词汇总.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>现金巴士，借呗蚂蚁花呗，趣分期乐花花无缺钱么么贷，闪银奇异，京东白条，爱学贷，名校贷，九融助业贷，急急贷，急用钱宝，玖富叮当贷，快贷，大学生贷款，嗨钱网贷嘛，给你花，指尖贷，任性付，手机贷款王，曹操贷</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>点融网爱学贷，万达贷，布丁小贷，招商交通广发银行信用卡，住房汽车口袋贷款，渣打星星钱袋，钱宝易阳指</t>
+  </si>
+  <si>
+    <t>点融网爱学贷,万达贷,布丁小贷,招商交通广发银行信用卡,住房汽车口袋贷款,渣打星星钱袋,小瑞快贷支付贷百度钱包,大小贷极速钱包,快贷贷款拍来贷,信用卡贷微贷拍分期,零零期信用宝,钱宝易阳指，瞬贷信用</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1376,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1422,9 +1425,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1461,6 +1466,11 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/0929关键词汇总.xlsx
+++ b/0929关键词汇总.xlsx
@@ -447,16 +447,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -809,354 +809,354 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -1164,107 +1164,112 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:U7"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="A9:U9"/>
+    <mergeCell ref="A10:U10"/>
     <mergeCell ref="A16:U16"/>
     <mergeCell ref="A17:U17"/>
     <mergeCell ref="A11:U11"/>
@@ -1278,11 +1283,6 @@
     <mergeCell ref="A13:U13"/>
     <mergeCell ref="A14:U14"/>
     <mergeCell ref="A15:U15"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:U7"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="A9:U9"/>
-    <mergeCell ref="A10:U10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/0929关键词汇总.xlsx
+++ b/0929关键词汇总.xlsx
@@ -447,16 +447,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -809,354 +809,354 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -1164,112 +1164,107 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A7:U7"/>
-    <mergeCell ref="A8:U8"/>
-    <mergeCell ref="A9:U9"/>
-    <mergeCell ref="A10:U10"/>
     <mergeCell ref="A16:U16"/>
     <mergeCell ref="A17:U17"/>
     <mergeCell ref="A11:U11"/>
@@ -1283,6 +1278,11 @@
     <mergeCell ref="A13:U13"/>
     <mergeCell ref="A14:U14"/>
     <mergeCell ref="A15:U15"/>
+    <mergeCell ref="A6:U6"/>
+    <mergeCell ref="A7:U7"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="A9:U9"/>
+    <mergeCell ref="A10:U10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/0929关键词汇总.xlsx
+++ b/0929关键词汇总.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ASO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qtkf/Desktop/ASO/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="38400" windowHeight="19545" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="3060" yWindow="700" windowWidth="38400" windowHeight="19540" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -26,23 +26,23 @@
     <sheet name="2-24" sheetId="12" r:id="rId12"/>
     <sheet name="4-21" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>现金巴士，借呗蚂蚁花呗，趣分期乐花花无缺钱么么贷，闪银奇异，京东白条，爱学贷，名校贷，九融助业贷，急急贷，急用钱宝，玖富叮当贷，快贷，大学生贷款，嗨钱网贷嘛，给你花，指尖贷，任性付，手机贷款王，曹操贷</t>
   </si>
@@ -323,14 +323,11 @@
   <si>
     <t>点融网爱学贷，万达贷，布丁小贷，招商交通广发银行信用卡，住房汽车口袋贷款，渣打星星钱袋，钱宝易阳指</t>
   </si>
-  <si>
-    <t>点融网爱学贷,万达贷,布丁小贷,招商交通广发银行信用卡,住房汽车口袋贷款,渣打星星钱袋,小瑞快贷支付贷百度钱包,大小贷极速钱包,快贷贷款拍来贷,信用卡贷微贷拍分期,零零期信用宝,钱宝易阳指，瞬贷信用</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,8 +413,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -459,10 +498,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -774,41 +827,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1"/>
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -833,7 +886,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -858,7 +911,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -883,7 +936,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -908,7 +961,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -933,7 +986,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -958,7 +1011,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -983,7 +1036,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1061,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1086,7 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -1058,7 +1111,7 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1136,7 @@
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1161,7 @@
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -1133,7 +1186,7 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1158,12 +1211,12 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1241,7 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1213,7 +1266,7 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
@@ -1238,7 +1291,7 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
@@ -1297,29 +1350,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1334,33 +1387,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1376,42 +1429,42 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1425,102 +1478,98 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2"/>
+  <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1537,7 +1586,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,46 +1595,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3"/>
+  <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1598,46 +1647,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表4"/>
+  <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="297" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="357" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1650,46 +1699,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表5"/>
+  <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1702,36 +1751,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表6"/>
+  <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1744,36 +1793,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表7"/>
+  <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1786,46 +1835,46 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表8"/>
+  <sheetPr codeName="工作表8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="297" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="374" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
